--- a/formats.xlsx
+++ b/formats.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">word</t>
   </si>
   <si>
-    <t xml:space="preserve">map (2D JsonArray?)</t>
+    <t xml:space="preserve">map (2D-JsonArray(char))</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -148,6 +148,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -207,8 +208,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,7 +241,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -314,7 +319,7 @@
       <c r="G7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="0" t="s">
@@ -331,10 +336,10 @@
       <c r="E8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J8" s="0" t="s">
@@ -345,13 +350,13 @@
       <c r="B9" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -433,7 +438,7 @@
       <c r="G18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="2"/>
       <c r="J18" s="0" t="s">
         <v>16</v>
       </c>
@@ -448,8 +453,8 @@
       <c r="E19" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="0" t="s">
         <v>19</v>
       </c>
@@ -458,8 +463,8 @@
       <c r="B20" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">

--- a/formats.xlsx
+++ b/formats.xlsx
@@ -79,6 +79,9 @@
     <t xml:space="preserve">all players</t>
   </si>
   <si>
+    <t xml:space="preserve">Players + send self</t>
+  </si>
+  <si>
     <t xml:space="preserve">players</t>
   </si>
   <si>
@@ -112,18 +115,6 @@
     <t xml:space="preserve">Player</t>
   </si>
   <si>
-    <t xml:space="preserve">ip (Str)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">port (int)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">port</t>
-  </si>
-  <si>
     <t xml:space="preserve">name (Str)</t>
   </si>
   <si>
@@ -134,6 +125,15 @@
   </si>
   <si>
     <t xml:space="preserve">score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Img (Str)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vote (int)</t>
   </si>
 </sst>
 </file>
@@ -240,8 +240,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -337,32 +337,35 @@
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>2</v>
@@ -406,21 +409,21 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,27 +451,24 @@
         <v>17</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>2</v>
@@ -479,10 +479,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,15 +490,15 @@
         <v>32</v>
       </c>
       <c r="C24" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,15 +506,15 @@
         <v>35</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/formats.xlsx
+++ b/formats.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t xml:space="preserve">Json structure</t>
   </si>
@@ -43,58 +43,70 @@
     <t xml:space="preserve">request invite</t>
   </si>
   <si>
+    <t xml:space="preserve">update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update vote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">word (Str)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map (2D-JsonArray(char))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">players (JsonArray)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">player (JsonObject)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potential players (JSONArray)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potential players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from (long)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client send</t>
+  </si>
+  <si>
     <t xml:space="preserve">response invite</t>
   </si>
   <si>
-    <t xml:space="preserve">ready</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update vote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">word (Str)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map (2D-JsonArray(char))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">players (JsonArray)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all players</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Players + send self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">players</t>
-  </si>
-  <si>
-    <t xml:space="preserve">player (JsonObject)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client send</t>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leave room</t>
   </si>
   <si>
     <t xml:space="preserve">Name (Str)</t>
@@ -143,12 +155,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+  <fonts count="16">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -165,16 +176,135 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -182,8 +312,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -207,6 +352,57 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -222,14 +418,91 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -238,10 +511,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -288,217 +561,219 @@
       <c r="E4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="G9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>12</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="0" t="s">
+      <c r="G15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="0" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="J18" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="H20" s="2"/>
+      <c r="J20" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="B22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>3</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>34</v>
+      </c>
       <c r="B25" s="0" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,21 +781,45 @@
         <v>35</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>28</v>
+      <c r="C28" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C14:J14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/formats.xlsx
+++ b/formats.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t xml:space="preserve">Json structure</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">this player</t>
   </si>
   <si>
+    <t xml:space="preserve">from</t>
+  </si>
+  <si>
     <t xml:space="preserve">player</t>
   </si>
   <si>
@@ -91,37 +94,43 @@
     <t xml:space="preserve">potential players</t>
   </si>
   <si>
-    <t xml:space="preserve">from (long)</t>
+    <t xml:space="preserve">Client send</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response invite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leave room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name (Str)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value (int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 or 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word (“” if pass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map (if not pass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invited players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id (long)</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client send</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response invite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leave room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name (Str)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value (int)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 or 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invited players</t>
   </si>
   <si>
     <t xml:space="preserve">Player</t>
@@ -514,7 +523,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -621,33 +630,27 @@
       <c r="C9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>2</v>
@@ -674,10 +677,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>8</v>
@@ -689,26 +692,26 @@
         <v>11</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,7 +727,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H20" s="2"/>
       <c r="J20" s="0" t="s">
@@ -736,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" s="2"/>
       <c r="I21" s="2"/>
@@ -753,21 +756,21 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>2</v>
@@ -778,42 +781,42 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/formats.xlsx
+++ b/formats.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t xml:space="preserve">Json structure</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">vote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update vote</t>
   </si>
   <si>
     <t xml:space="preserve">end</t>
@@ -164,11 +161,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -185,135 +183,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -321,23 +200,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,57 +225,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -427,91 +240,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -523,7 +259,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -576,81 +312,71 @@
       <c r="H4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="J7" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="G9" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>2</v>
@@ -677,10 +403,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>8</v>
@@ -689,88 +415,88 @@
         <v>9</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="H18" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="2"/>
       <c r="J20" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="E23" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>2</v>
@@ -781,42 +507,42 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/formats.xlsx
+++ b/formats.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t xml:space="preserve">Json structure</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t xml:space="preserve">potential players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check (Boolean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isValid name</t>
   </si>
   <si>
     <t xml:space="preserve">Client send</t>
@@ -259,7 +265,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -373,10 +379,21 @@
       <c r="E10" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="H10" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>2</v>
@@ -403,10 +420,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>8</v>
@@ -418,26 +435,26 @@
         <v>10</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,7 +462,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,7 +470,7 @@
         <v>13</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20" s="2"/>
       <c r="J20" s="0" t="s">
@@ -465,7 +482,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F21" s="2"/>
       <c r="I21" s="2"/>
@@ -482,21 +499,21 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>2</v>
@@ -507,42 +524,42 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
